--- a/lesson04/presentation/BootstrapAnnual.xlsx
+++ b/lesson04/presentation/BootstrapAnnual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larry\Dropbox\Family\LBTentor\Professional\Teaching\Finance Class\Financial Institutions\VCU-FIRE622\lesson04\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23CCF8-A398-4219-BF19-8304F542C1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DEFC8D-5441-482A-BE5D-FCD9CC6209BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="14932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27250" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="D6" s="7">
         <f>D12</f>
-        <v>4.0099135825155702E-2</v>
+        <v>4.0100501941375752E-2</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="D8" s="3">
         <f>(1+D6)^(-2)</f>
-        <v>0.92437997544221495</v>
+        <v>0.92437754719677823</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>4.0099135825155702E-2</v>
+        <v>4.0100501941375752E-2</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="D13">
         <f>(1+D12)^(-2)</f>
-        <v>0.92437997544221495</v>
+        <v>0.92437754719677823</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -708,7 +708,7 @@
       </c>
       <c r="D14">
         <f>D13*D11</f>
-        <v>96.135517445990359</v>
+        <v>96.135264908464933</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -717,7 +717,7 @@
       </c>
       <c r="C15">
         <f>C14+D14</f>
-        <v>100.00025174550727</v>
+        <v>99.999999207981844</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -793,11 +793,11 @@
       </c>
       <c r="D22" s="7">
         <f>D12</f>
-        <v>4.0099135825155702E-2</v>
+        <v>4.0100501941375752E-2</v>
       </c>
       <c r="E22" s="7">
         <f>E28</f>
-        <v>4.5306498697067349E-2</v>
+        <v>4.530677273076382E-2</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -813,7 +813,7 @@
       </c>
       <c r="D24" s="3">
         <f>(1+D22)^(-2)</f>
-        <v>0.92437997544221495</v>
+        <v>0.92437754719677823</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>4.5306498697067349E-2</v>
+        <v>4.530677273076382E-2</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -859,11 +859,11 @@
       </c>
       <c r="D29">
         <f>D13</f>
-        <v>0.92437997544221495</v>
+        <v>0.92437754719677823</v>
       </c>
       <c r="E29">
         <f>(1+E28)^(-3)</f>
-        <v>0.87552600225673538</v>
+        <v>0.87552531368309283</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -876,11 +876,11 @@
       </c>
       <c r="D30">
         <f>D29*D27</f>
-        <v>4.1597098894899673</v>
+        <v>4.1596989623855016</v>
       </c>
       <c r="E30">
         <f>E27*E29</f>
-        <v>91.49246723582884</v>
+        <v>91.492395279883198</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -889,7 +889,7 @@
       </c>
       <c r="C31">
         <f>C30+D30+E30</f>
-        <v>100.00000321227533</v>
+        <v>99.999920329225219</v>
       </c>
     </row>
   </sheetData>
